--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>630.0042926727822</v>
+        <v>888.7684408652659</v>
       </c>
       <c r="R2">
-        <v>5670.038634055039</v>
+        <v>7998.915967787393</v>
       </c>
       <c r="S2">
-        <v>0.001505116270618137</v>
+        <v>0.001983699250506962</v>
       </c>
       <c r="T2">
-        <v>0.001505116270618137</v>
+        <v>0.001983699250506962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>608.0834732668212</v>
+        <v>758.5826336473174</v>
       </c>
       <c r="R3">
-        <v>5472.751259401392</v>
+        <v>6827.243702825856</v>
       </c>
       <c r="S3">
-        <v>0.001452746179910946</v>
+        <v>0.001693129202865005</v>
       </c>
       <c r="T3">
-        <v>0.001452746179910946</v>
+        <v>0.001693129202865004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>123.0612625938986</v>
+        <v>225.9960903546738</v>
       </c>
       <c r="R4">
-        <v>1107.551363345088</v>
+        <v>2033.964813192064</v>
       </c>
       <c r="S4">
-        <v>0.0002940003913736667</v>
+        <v>0.0005044151597210369</v>
       </c>
       <c r="T4">
-        <v>0.0002940003913736666</v>
+        <v>0.0005044151597210368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>389.289819018336</v>
+        <v>450.4553079232711</v>
       </c>
       <c r="R5">
-        <v>3503.608371165024</v>
+        <v>4054.09777130944</v>
       </c>
       <c r="S5">
-        <v>0.0009300356321457825</v>
+        <v>0.001005400074561983</v>
       </c>
       <c r="T5">
-        <v>0.0009300356321457823</v>
+        <v>0.001005400074561983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>149066.4469641851</v>
+        <v>168571.9537808384</v>
       </c>
       <c r="R6">
-        <v>1341598.022677666</v>
+        <v>1517147.584027546</v>
       </c>
       <c r="S6">
-        <v>0.3561282634713128</v>
+        <v>0.3762465485903057</v>
       </c>
       <c r="T6">
-        <v>0.3561282634713127</v>
+        <v>0.3762465485903056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>143879.7225221545</v>
@@ -883,10 +883,10 @@
         <v>1294917.50269939</v>
       </c>
       <c r="S7">
-        <v>0.3437368822700932</v>
+        <v>0.3211343749475182</v>
       </c>
       <c r="T7">
-        <v>0.3437368822700932</v>
+        <v>0.3211343749475181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>29117.74631879674</v>
+        <v>42864.48612062449</v>
       </c>
       <c r="R8">
-        <v>262059.7168691707</v>
+        <v>385780.3750856204</v>
       </c>
       <c r="S8">
-        <v>0.06956396052830534</v>
+        <v>0.09567199405512999</v>
       </c>
       <c r="T8">
-        <v>0.06956396052830532</v>
+        <v>0.09567199405512997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>92110.5631109314</v>
+        <v>85437.47488788968</v>
       </c>
       <c r="R9">
-        <v>828995.0679983826</v>
+        <v>768937.2739910071</v>
       </c>
       <c r="S9">
-        <v>0.2200574009518191</v>
+        <v>0.1906933764832082</v>
       </c>
       <c r="T9">
-        <v>0.2200574009518191</v>
+        <v>0.1906933764832082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>870.3323739543378</v>
+        <v>1796.959780067399</v>
       </c>
       <c r="R10">
-        <v>7832.99136558904</v>
+        <v>16172.63802060659</v>
       </c>
       <c r="S10">
-        <v>0.002079273795622784</v>
+        <v>0.004010749712760379</v>
       </c>
       <c r="T10">
-        <v>0.002079273795622783</v>
+        <v>0.004010749712760379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>840.0494076087047</v>
+        <v>1533.743121205717</v>
       </c>
       <c r="R11">
-        <v>7560.444668478342</v>
+        <v>13803.68809085146</v>
       </c>
       <c r="S11">
-        <v>0.002006926057838293</v>
+        <v>0.003423259580463906</v>
       </c>
       <c r="T11">
-        <v>0.002006926057838293</v>
+        <v>0.003423259580463905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>170.0055095827653</v>
+        <v>456.9310364176071</v>
       </c>
       <c r="R12">
-        <v>1530.049586244888</v>
+        <v>4112.379327758464</v>
       </c>
       <c r="S12">
-        <v>0.0004061528810894122</v>
+        <v>0.001019853668062889</v>
       </c>
       <c r="T12">
-        <v>0.0004061528810894121</v>
+        <v>0.001019853668062889</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>537.7924186914361</v>
+        <v>910.7547408726043</v>
       </c>
       <c r="R13">
-        <v>4840.131768222924</v>
+        <v>8196.79266785344</v>
       </c>
       <c r="S13">
-        <v>0.001284816832205264</v>
+        <v>0.002032771882747951</v>
       </c>
       <c r="T13">
-        <v>0.001284816832205264</v>
+        <v>0.002032771882747951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>83.52425743013335</v>
+        <v>99.46037927812588</v>
       </c>
       <c r="R14">
-        <v>751.7183168712002</v>
+        <v>895.143413503133</v>
       </c>
       <c r="S14">
-        <v>0.0001995442258274992</v>
+        <v>0.0002219919956170748</v>
       </c>
       <c r="T14">
-        <v>0.0001995442258274991</v>
+        <v>0.0002219919956170748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>80.61805475114001</v>
+        <v>84.89153415810766</v>
       </c>
       <c r="R15">
-        <v>725.5624927602601</v>
+        <v>764.023807422969</v>
       </c>
       <c r="S15">
-        <v>0.0001926011414886457</v>
+        <v>0.0001894748563752761</v>
       </c>
       <c r="T15">
-        <v>0.0001926011414886456</v>
+        <v>0.0001894748563752761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>16.31512784296</v>
+        <v>25.29079097381788</v>
       </c>
       <c r="R16">
-        <v>146.83615058664</v>
+        <v>227.617118764361</v>
       </c>
       <c r="S16">
-        <v>3.897777310290219E-05</v>
+        <v>5.644813743684253E-05</v>
       </c>
       <c r="T16">
-        <v>3.897777310290218E-05</v>
+        <v>5.644813743684251E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>51.61098652308001</v>
+        <v>50.40959344852055</v>
       </c>
       <c r="R17">
-        <v>464.4988787077201</v>
+        <v>453.686341036685</v>
       </c>
       <c r="S17">
-        <v>0.0001233015972462391</v>
+        <v>0.0001125124027185728</v>
       </c>
       <c r="T17">
-        <v>0.0001233015972462391</v>
+        <v>0.0001125124027185728</v>
       </c>
     </row>
   </sheetData>
